--- a/05.cleaning/04.project.names/rev.01/from.invoicing.xlsx
+++ b/05.cleaning/04.project.names/rev.01/from.invoicing.xlsx
@@ -5,16 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/05.cleaning/04.project.names/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\05.cleaning\04.project.names\rev.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEF91374-18EE-45FA-A8AF-14F9AAEC9065}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B6BF4-F3E0-4D3C-9DB6-CFDF93808942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="invoicing" sheetId="1" r:id="rId1"/>
+    <sheet name="eslam" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">invoicing!$A$1:$B$819</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1273">
   <si>
     <t>Project NUM</t>
   </si>
@@ -2914,6 +2918,936 @@
   </si>
   <si>
     <t>project name</t>
+  </si>
+  <si>
+    <t>6TH October tunnel</t>
+  </si>
+  <si>
+    <t>Abo Ghaleb Bridge</t>
+  </si>
+  <si>
+    <t>AEON</t>
+  </si>
+  <si>
+    <t>Al Jazi</t>
+  </si>
+  <si>
+    <t>Al Jazi - Center Zone</t>
+  </si>
+  <si>
+    <t>Al Jazi - Center Zone-DP</t>
+  </si>
+  <si>
+    <t>Al Jazi - Social Insurance</t>
+  </si>
+  <si>
+    <t>Al Jazi-DP</t>
+  </si>
+  <si>
+    <t>Alfa Lab</t>
+  </si>
+  <si>
+    <t>Allegria-New Modifications</t>
+  </si>
+  <si>
+    <t>Astoria - Sharm</t>
+  </si>
+  <si>
+    <t>Astoria - Sharm-DP</t>
+  </si>
+  <si>
+    <t>Astoria Hotel</t>
+  </si>
+  <si>
+    <t>Astoria Hotel - DP</t>
+  </si>
+  <si>
+    <t>Astoria Hotel - Final Retention</t>
+  </si>
+  <si>
+    <t>Astoria Hotel - On Account</t>
+  </si>
+  <si>
+    <t>Astoria Hotel - Social Insurrance</t>
+  </si>
+  <si>
+    <t>Astoria Hotel - Spare Parts V.O 137</t>
+  </si>
+  <si>
+    <t>Astoria Hotel IPCs 15-20</t>
+  </si>
+  <si>
+    <t>Baraka Land Fence</t>
+  </si>
+  <si>
+    <t>Benban - Aswan</t>
+  </si>
+  <si>
+    <t>Benban - Aswan - DP</t>
+  </si>
+  <si>
+    <t>Cement Plant</t>
+  </si>
+  <si>
+    <t>Cement Plant -Last Claim</t>
+  </si>
+  <si>
+    <t>CFC</t>
+  </si>
+  <si>
+    <t>CFC - Final Retention</t>
+  </si>
+  <si>
+    <t>CFC-DP</t>
+  </si>
+  <si>
+    <t>Comoros - DP</t>
+  </si>
+  <si>
+    <t>Comoros - Off Shore</t>
+  </si>
+  <si>
+    <t>Comoros - On Shore</t>
+  </si>
+  <si>
+    <t>Comoros - On Shore - On Account</t>
+  </si>
+  <si>
+    <t>Creeks - URBN K</t>
+  </si>
+  <si>
+    <t>Creeks - URBN K - DP</t>
+  </si>
+  <si>
+    <t>Creeks - URBN K - On Account</t>
+  </si>
+  <si>
+    <t>Damietta Port - Civil</t>
+  </si>
+  <si>
+    <t>Damietta Port - Civil - DP</t>
+  </si>
+  <si>
+    <t>Damietta Port - Infra - DP</t>
+  </si>
+  <si>
+    <t>DP World Sokhna</t>
+  </si>
+  <si>
+    <t>DP World Sokhna-AP</t>
+  </si>
+  <si>
+    <t>DPW - Ph.02</t>
+  </si>
+  <si>
+    <t>DPW - Ph.02 - DP</t>
+  </si>
+  <si>
+    <t>EGAT Pelletizing Plant - Admin Building</t>
+  </si>
+  <si>
+    <t>EGAT Pelletizing Plant - Supply</t>
+  </si>
+  <si>
+    <t>EGAT Pelletizing Plant-Concrete Infra</t>
+  </si>
+  <si>
+    <t>EGAT Pelletizing Plant-DP</t>
+  </si>
+  <si>
+    <t>EGAT Pelletizing Plant-Escalation</t>
+  </si>
+  <si>
+    <t>EGAT Pelletizing Plant-Mechanical Installation</t>
+  </si>
+  <si>
+    <t>EGAT Pelletizing Plant-MEP</t>
+  </si>
+  <si>
+    <t>EGAT Pelletizing Plant-MEP Coordination</t>
+  </si>
+  <si>
+    <t>EGAT Pelletizing Plant-On account</t>
+  </si>
+  <si>
+    <t>EGAT Pelletizing Plant-Water Tank</t>
+  </si>
+  <si>
+    <t>EGAT-Asphalt</t>
+  </si>
+  <si>
+    <t>EGAT-Asphalt - Retenion Release</t>
+  </si>
+  <si>
+    <t>EGAT-EGAT ON Account</t>
+  </si>
+  <si>
+    <t>EGAT-Fence</t>
+  </si>
+  <si>
+    <t>EGAT-Fence - Retenion Release</t>
+  </si>
+  <si>
+    <t>EGAT-HeliPad</t>
+  </si>
+  <si>
+    <t>EGAT-Lock &amp; Load</t>
+  </si>
+  <si>
+    <t>EGAT-Lock &amp; Load-AP</t>
+  </si>
+  <si>
+    <t>EGAT-SZ</t>
+  </si>
+  <si>
+    <t>EGAT-Warehouse</t>
+  </si>
+  <si>
+    <t>EIPICO</t>
+  </si>
+  <si>
+    <t>EIPICO-DP</t>
+  </si>
+  <si>
+    <t>EIPICO-On Account</t>
+  </si>
+  <si>
+    <t>El Sewedy Uni.-PKG.1</t>
+  </si>
+  <si>
+    <t>El Sewedy Uni.-PKG.1-DP1</t>
+  </si>
+  <si>
+    <t>El Sewedy Uni.-PKG.2</t>
+  </si>
+  <si>
+    <t>El Sewedy Uni.-PKG.2-DP2</t>
+  </si>
+  <si>
+    <t>El Sewedy Uni.-PKG.2-Social Insurrance</t>
+  </si>
+  <si>
+    <t>El Sewedy Uni.-PKG.3</t>
+  </si>
+  <si>
+    <t>El Sewedy Uni.-PKG.3 - On Account</t>
+  </si>
+  <si>
+    <t>El Sewedy Uni.-PKG.3-DP</t>
+  </si>
+  <si>
+    <t>El Sewedy Uni.-PKG.3-Social Insurrance</t>
+  </si>
+  <si>
+    <t>Elco Steel</t>
+  </si>
+  <si>
+    <t>Elco Steel - ADMIN.</t>
+  </si>
+  <si>
+    <t>Elco Steel - MEP</t>
+  </si>
+  <si>
+    <t>Elco Steel - MEP - Social Insurance</t>
+  </si>
+  <si>
+    <t>Elco Steel - Social Insurance</t>
+  </si>
+  <si>
+    <t>Elco Steel EGAT-DP</t>
+  </si>
+  <si>
+    <t>Elco Steel V.O</t>
+  </si>
+  <si>
+    <t>Elco Steel V.O-DP</t>
+  </si>
+  <si>
+    <t>Elco Steel V.O-Infra. Network</t>
+  </si>
+  <si>
+    <t>El-Gouna</t>
+  </si>
+  <si>
+    <t>El-Gouna - DP</t>
+  </si>
+  <si>
+    <t>El-Gouna - Equip. Rental</t>
+  </si>
+  <si>
+    <t>El-Gouna - Temp. Fence</t>
+  </si>
+  <si>
+    <t>EUA-DP</t>
+  </si>
+  <si>
+    <t>Existing Intake Apply -SSC-Mech</t>
+  </si>
+  <si>
+    <t>Existing Intake Supply -SSC-Mech</t>
+  </si>
+  <si>
+    <t>FIEM</t>
+  </si>
+  <si>
+    <t>FIEM - Retention</t>
+  </si>
+  <si>
+    <t>FIEM-Site Offices Rental Payment Request</t>
+  </si>
+  <si>
+    <t>H1 Solaymaneya-MEP</t>
+  </si>
+  <si>
+    <t>H1 Solaymaneya-MEP-DP</t>
+  </si>
+  <si>
+    <t>HQ - CFC</t>
+  </si>
+  <si>
+    <t>HQ - CFC - DP</t>
+  </si>
+  <si>
+    <t>HQ - CFC - Retention release</t>
+  </si>
+  <si>
+    <t>HQ - CFC - Social Insurrance</t>
+  </si>
+  <si>
+    <t>HyperOne</t>
+  </si>
+  <si>
+    <t>HyperOne-DP</t>
+  </si>
+  <si>
+    <t>HyperOne-Steel Supply</t>
+  </si>
+  <si>
+    <t>HyperOne-VAT 1,2,3</t>
+  </si>
+  <si>
+    <t>IKEA</t>
+  </si>
+  <si>
+    <t>IKEA-DP</t>
+  </si>
+  <si>
+    <t>IKEA-Retention Release</t>
+  </si>
+  <si>
+    <t>JICA</t>
+  </si>
+  <si>
+    <t>JICA-Site Offices Rental Payment Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kafr Shokr </t>
+  </si>
+  <si>
+    <t>Kafr Shokr - Retention Release</t>
+  </si>
+  <si>
+    <t>Katameya - Creeks</t>
+  </si>
+  <si>
+    <t>Katameya - Creeks - DP</t>
+  </si>
+  <si>
+    <t>Katameya - Creeks - DP - Alu Glass</t>
+  </si>
+  <si>
+    <t>Katameya - Creeks - On Account</t>
+  </si>
+  <si>
+    <t>KFW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFW-Road Signals </t>
+  </si>
+  <si>
+    <t>Khatatba Bridge</t>
+  </si>
+  <si>
+    <t>KSA-Tarek AbdelHakim Center</t>
+  </si>
+  <si>
+    <t>KSA-Tarek AbdelHakim Center - DP</t>
+  </si>
+  <si>
+    <t>LEKELA</t>
+  </si>
+  <si>
+    <t>LEKELA - Supply Bill</t>
+  </si>
+  <si>
+    <t>LEKELA- On Account</t>
+  </si>
+  <si>
+    <t>LEKELA Remedial</t>
+  </si>
+  <si>
+    <t>LEKELA Remedial-DP</t>
+  </si>
+  <si>
+    <t>LEKELA-DP</t>
+  </si>
+  <si>
+    <t>MDF Factory - Equip.</t>
+  </si>
+  <si>
+    <t>MDF Factory - Local Fabrication</t>
+  </si>
+  <si>
+    <t>MDF Factory-DP</t>
+  </si>
+  <si>
+    <t>MDF Factory-F.F V.O-on account</t>
+  </si>
+  <si>
+    <t>MDF Factory-Hold Amount release</t>
+  </si>
+  <si>
+    <t>MDF Factory-Local Fab.-on account</t>
+  </si>
+  <si>
+    <t>MDF Factory-on account</t>
+  </si>
+  <si>
+    <t>MDF Factory-on account solera</t>
+  </si>
+  <si>
+    <t>MDF Factory-P.O-on account</t>
+  </si>
+  <si>
+    <t>Mechanical Installation</t>
+  </si>
+  <si>
+    <t>Mechanical Installation-DP</t>
+  </si>
+  <si>
+    <t>Mintra</t>
+  </si>
+  <si>
+    <t>Mintra-DP</t>
+  </si>
+  <si>
+    <t>Mintra-Hanger 1200m2</t>
+  </si>
+  <si>
+    <t>Mivida-PK#140</t>
+  </si>
+  <si>
+    <t>Mivida-PK#140- Social Insurance</t>
+  </si>
+  <si>
+    <t>Mivida-PK#140-DP</t>
+  </si>
+  <si>
+    <t>Mivida-PK#189</t>
+  </si>
+  <si>
+    <t>Mivida-PK#189 - on account</t>
+  </si>
+  <si>
+    <t>Mivida-PK#189 - Social insurance</t>
+  </si>
+  <si>
+    <t>Mivida-PK#189-DP</t>
+  </si>
+  <si>
+    <t>Mobilization</t>
+  </si>
+  <si>
+    <t>MOC</t>
+  </si>
+  <si>
+    <t>MOC - DP</t>
+  </si>
+  <si>
+    <t>New Gas Station</t>
+  </si>
+  <si>
+    <t>New Giza Hospital</t>
+  </si>
+  <si>
+    <t>New Giza Hospital-DP</t>
+  </si>
+  <si>
+    <t>New Giza Hospital-On Account</t>
+  </si>
+  <si>
+    <t>New Giza Hospital-Social Insurance</t>
+  </si>
+  <si>
+    <t>NGU 2</t>
+  </si>
+  <si>
+    <t>NGU 2 - Retension release</t>
+  </si>
+  <si>
+    <t>Old H1 remaining IPC</t>
+  </si>
+  <si>
+    <t>ORA - ZED</t>
+  </si>
+  <si>
+    <t>ORA - ZED - Compansation</t>
+  </si>
+  <si>
+    <t>ORA - ZED - Deficit</t>
+  </si>
+  <si>
+    <t>ORA - ZED - DP</t>
+  </si>
+  <si>
+    <t>ORA - ZED - Landscape</t>
+  </si>
+  <si>
+    <t>ORA - ZED - Landscape - Deficit</t>
+  </si>
+  <si>
+    <t>ORA - ZED - Landscape - DP</t>
+  </si>
+  <si>
+    <t>ORA - ZED - On account</t>
+  </si>
+  <si>
+    <t>ORA - ZED - ph.02</t>
+  </si>
+  <si>
+    <t>ORA - ZED - ph.02 - Claims</t>
+  </si>
+  <si>
+    <t>ORA - ZED - ph.02 - Deficit</t>
+  </si>
+  <si>
+    <t>ORA - ZED - ph.02 - On Account</t>
+  </si>
+  <si>
+    <t>ORA - ZED - Social Insurrance</t>
+  </si>
+  <si>
+    <t>PH.2-El Sewedy Uni. - Enabling</t>
+  </si>
+  <si>
+    <t>PH.2-El Sewedy Uni. - Enabling - Retention release</t>
+  </si>
+  <si>
+    <t>PH.2-El Sewedy Uni. - Finishes</t>
+  </si>
+  <si>
+    <t>PH.2-El Sewedy Uni. - Finishes - on account</t>
+  </si>
+  <si>
+    <t>PH.2-El Sewedy Uni. - Finishes-Social Insurrance</t>
+  </si>
+  <si>
+    <t>PH.2-El Sewedy Uni.-DP</t>
+  </si>
+  <si>
+    <t>PI Parks - ELSEWEDY</t>
+  </si>
+  <si>
+    <t>PI Parks - MEP</t>
+  </si>
+  <si>
+    <t>PI Parks - MEP-DP1</t>
+  </si>
+  <si>
+    <t>PI Parks - MEP-DP2</t>
+  </si>
+  <si>
+    <t>PK #107</t>
+  </si>
+  <si>
+    <t>PK #117</t>
+  </si>
+  <si>
+    <t>PK #117 - Social Insurance</t>
+  </si>
+  <si>
+    <t>PK #22 - Social Insurance</t>
+  </si>
+  <si>
+    <t>PK#22</t>
+  </si>
+  <si>
+    <t>PK#32</t>
+  </si>
+  <si>
+    <t>PKG#101</t>
+  </si>
+  <si>
+    <t>PKG#101- Social Insurance</t>
+  </si>
+  <si>
+    <t>PKG#101-DP</t>
+  </si>
+  <si>
+    <t>PKG#101-VO1&amp;VO2 AP</t>
+  </si>
+  <si>
+    <t>PKG#144</t>
+  </si>
+  <si>
+    <t>PKG#144 - Social Insurance</t>
+  </si>
+  <si>
+    <t>PKG#144-DP</t>
+  </si>
+  <si>
+    <t>PKG#162</t>
+  </si>
+  <si>
+    <t>PKG#162- Social Insurance</t>
+  </si>
+  <si>
+    <t>PKG#162-DP</t>
+  </si>
+  <si>
+    <t>PKG#163</t>
+  </si>
+  <si>
+    <t>PKG#163- Social Insurance</t>
+  </si>
+  <si>
+    <t>PKG#163-DP</t>
+  </si>
+  <si>
+    <t>PKG#177</t>
+  </si>
+  <si>
+    <t>PKG#177 - DP</t>
+  </si>
+  <si>
+    <t>PKG#177 - on account</t>
+  </si>
+  <si>
+    <t>PKG#177 - SWI 07</t>
+  </si>
+  <si>
+    <t>PKG#177- Social Insurance</t>
+  </si>
+  <si>
+    <t>PKG#178</t>
+  </si>
+  <si>
+    <t>PKG#178 - DP</t>
+  </si>
+  <si>
+    <t>PKG#178- Social Insurance</t>
+  </si>
+  <si>
+    <t>PKG#205</t>
+  </si>
+  <si>
+    <t>PKG#205 - DP</t>
+  </si>
+  <si>
+    <t>PKG#205-Social Insurance</t>
+  </si>
+  <si>
+    <t>PKG#220B</t>
+  </si>
+  <si>
+    <t>PKG#220B - DP</t>
+  </si>
+  <si>
+    <t>PKG#45</t>
+  </si>
+  <si>
+    <t>PKG#58</t>
+  </si>
+  <si>
+    <t>PKG#85</t>
+  </si>
+  <si>
+    <t>PO#11687</t>
+  </si>
+  <si>
+    <t>Port Said Silos</t>
+  </si>
+  <si>
+    <t>Port Said Silos - Foreigner Supply</t>
+  </si>
+  <si>
+    <t>Port Said Silos - Local Supply</t>
+  </si>
+  <si>
+    <t>Port Said Silos-DP</t>
+  </si>
+  <si>
+    <t>Port Said Silos-On account</t>
+  </si>
+  <si>
+    <t>Port Said Silos-Social Insurrance</t>
+  </si>
+  <si>
+    <t>PSP Substation</t>
+  </si>
+  <si>
+    <t>PSP Substation - Beni Suef</t>
+  </si>
+  <si>
+    <t>PSP Substation - DP</t>
+  </si>
+  <si>
+    <t>PSP Substation-Retention</t>
+  </si>
+  <si>
+    <t>Rabigh Ext. - Piles</t>
+  </si>
+  <si>
+    <t>Rabigh Ext. - Piles- DP</t>
+  </si>
+  <si>
+    <t>Rabigh Ext. -Building</t>
+  </si>
+  <si>
+    <t>Rabigh Ext. -Building- DP</t>
+  </si>
+  <si>
+    <t>Radamis-Concrete</t>
+  </si>
+  <si>
+    <t>Radamis-Concrete-DP</t>
+  </si>
+  <si>
+    <t>Radamis-H1 Main Builidng</t>
+  </si>
+  <si>
+    <t>Radamis-H1-On Account</t>
+  </si>
+  <si>
+    <t>Radamis-Rooms Fitout</t>
+  </si>
+  <si>
+    <t>Radamis-Rooms Fitout-DP</t>
+  </si>
+  <si>
+    <t>Radamis-Villas Finishes</t>
+  </si>
+  <si>
+    <t>Red Sea Museum</t>
+  </si>
+  <si>
+    <t>Red Sea Museum - DP</t>
+  </si>
+  <si>
+    <t>Ring Road - El Marg</t>
+  </si>
+  <si>
+    <t>Ring Road - El Marg - Retention Release</t>
+  </si>
+  <si>
+    <t>Ring Road - Mounib</t>
+  </si>
+  <si>
+    <t>Ring Road - Mounib - refund</t>
+  </si>
+  <si>
+    <t>Ring Road - Mounib - Social Insurance</t>
+  </si>
+  <si>
+    <t>RO  Apply -Mech- SSC</t>
+  </si>
+  <si>
+    <t>RO  Eriction</t>
+  </si>
+  <si>
+    <t>RO  Pump Room</t>
+  </si>
+  <si>
+    <t>RO - Supply - Electric</t>
+  </si>
+  <si>
+    <t>RO  Supply -Mech- SSC</t>
+  </si>
+  <si>
+    <t>RO 2</t>
+  </si>
+  <si>
+    <t>RO Pump room - SSC - price diff.</t>
+  </si>
+  <si>
+    <t>RO.2</t>
+  </si>
+  <si>
+    <t>Rolling Mill #4-TRAESUEZ</t>
+  </si>
+  <si>
+    <t>Rolling Mill #4-TRAESUEZ -AP</t>
+  </si>
+  <si>
+    <t>Royal City - Landscape</t>
+  </si>
+  <si>
+    <t>Royal City-DP 3</t>
+  </si>
+  <si>
+    <t>Royal City-DP 4</t>
+  </si>
+  <si>
+    <t>Royal City-DP1</t>
+  </si>
+  <si>
+    <t>Royal City-DP2</t>
+  </si>
+  <si>
+    <t>Saint Gobain Factory - DP</t>
+  </si>
+  <si>
+    <t>SIEMENS - Sokhna</t>
+  </si>
+  <si>
+    <t>SIEMENS - Sokhna - Bill</t>
+  </si>
+  <si>
+    <t>SMP1 - Revamp</t>
+  </si>
+  <si>
+    <t>SMP1 - Revamp - DP</t>
+  </si>
+  <si>
+    <t>SMP1 - Shut Down</t>
+  </si>
+  <si>
+    <t>SMP1 - Shut Down- Final Retention</t>
+  </si>
+  <si>
+    <t>SMP2 - Shut Down</t>
+  </si>
+  <si>
+    <t>SMP2 - Shut Down- Retention release</t>
+  </si>
+  <si>
+    <t>SMP2 - Shut Down- V.O</t>
+  </si>
+  <si>
+    <t>Sodic Club House - Social Insurance</t>
+  </si>
+  <si>
+    <t>Sodic Eastown</t>
+  </si>
+  <si>
+    <t>Sodic Eastown - Landscape</t>
+  </si>
+  <si>
+    <t>Sodic Eastown - On Account</t>
+  </si>
+  <si>
+    <t>Sodic Eastown - Social Insurance</t>
+  </si>
+  <si>
+    <t>Sodic Eastown-DP</t>
+  </si>
+  <si>
+    <t>Sokhna Port Expansion- 100m</t>
+  </si>
+  <si>
+    <t>Sokhna Port Expansion 100m- Escalation</t>
+  </si>
+  <si>
+    <t>Sokhna Port Expansion- EDECS</t>
+  </si>
+  <si>
+    <t>Sokhna Port Expansion- Escalation</t>
+  </si>
+  <si>
+    <t>Sokhna Port Expansion-AP</t>
+  </si>
+  <si>
+    <t>Sokhna Port Expansion-internal roads</t>
+  </si>
+  <si>
+    <t>Sports Hall - Civil Works</t>
+  </si>
+  <si>
+    <t>Sports Hall - Finishes</t>
+  </si>
+  <si>
+    <t>Sports Hall - Finishes - ADD.01</t>
+  </si>
+  <si>
+    <t>Sports Hall - Finishes - ADD.01 - Final Retention</t>
+  </si>
+  <si>
+    <t>Sports Hall - Finishes - Landscape</t>
+  </si>
+  <si>
+    <t>Sports Hall - Finishes - Landscape - Final Retention</t>
+  </si>
+  <si>
+    <t>Sports Hall - Finishes - Social Insurance</t>
+  </si>
+  <si>
+    <t>Sports Hall - MEP</t>
+  </si>
+  <si>
+    <t>Sports Hall - MEP - DP</t>
+  </si>
+  <si>
+    <t>Sports Hall - MEP - Final Retention</t>
+  </si>
+  <si>
+    <t>Suez Intake &amp; P Stations-ABB apply</t>
+  </si>
+  <si>
+    <t>Suez Intake &amp; P Stations-ABB supply</t>
+  </si>
+  <si>
+    <t>Suez Intake &amp; P Stations-ABB-Escalation</t>
+  </si>
+  <si>
+    <t>Suez Intake &amp; P Stations-SSC apply</t>
+  </si>
+  <si>
+    <t>Suez Intake &amp; P Stations-SSC supply</t>
+  </si>
+  <si>
+    <t>Suez Steel Intake &amp; P Stations-DP</t>
+  </si>
+  <si>
+    <t>Suez Steel-Al Baraka-DP</t>
+  </si>
+  <si>
+    <t>Suez Steel-Gas Station-DP</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>SVC-DP</t>
+  </si>
+  <si>
+    <t>Uptown PK #53</t>
+  </si>
+  <si>
+    <t>Uptown PK #62</t>
+  </si>
+  <si>
+    <t>Uptown PK #62 - Retention</t>
+  </si>
+  <si>
+    <t>Wady Halfa</t>
+  </si>
+  <si>
+    <t>Wady Halfa - DP</t>
+  </si>
+  <si>
+    <t>Wady Halfa - Escalation Claim</t>
+  </si>
+  <si>
+    <t>Wady Halfa - Stoppage Period</t>
+  </si>
+  <si>
+    <t>Western Fence</t>
+  </si>
+  <si>
+    <t>Western Fence-PO</t>
+  </si>
+  <si>
+    <t>Zayed Park</t>
   </si>
 </sst>
 </file>
@@ -2966,10 +3900,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3238,7 +4168,7 @@
   <dimension ref="A1:B819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7774,6 +8704,1605 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B819" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CAF1C8-5430-4502-BAB3-4D037BF7461E}">
+  <dimension ref="A1:A316"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>